--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\da1_0\Programming\excel-replaceer\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1CA747-60B4-4F0A-9C75-7E73C45C56C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB1B076-4755-495F-9E56-365BD3A738DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31170" yWindow="4455" windowWidth="17280" windowHeight="8970" xr2:uid="{68D0F4AB-BD86-48B5-B850-86DDB134C699}"/>
   </bookViews>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>test.site</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>dummy</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -39,11 +35,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>test.site/test/</t>
+    <t>test02</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>test02</t>
+    <t>test01.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test02.html</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -411,7 +411,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H9:H10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -423,24 +423,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\da1_0\Programming\excel-replaceer\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DT0117\seolist\excel-replaceer\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB1B076-4755-495F-9E56-365BD3A738DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8313E6-1C28-4B7B-A71E-A9237475CFEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31170" yWindow="4455" windowWidth="17280" windowHeight="8970" xr2:uid="{68D0F4AB-BD86-48B5-B850-86DDB134C699}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68D0F4AB-BD86-48B5-B850-86DDB134C699}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>dummy</t>
     <phoneticPr fontId="1"/>
@@ -44,6 +44,26 @@
   </si>
   <si>
     <t>test02.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test03.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test04.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dummy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test04</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -408,20 +428,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5869E8-8E28-40C7-B261-41BA7D1605DC}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -432,7 +452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -440,6 +460,72 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
     </row>
